--- a/Tutorial/mof.xlsx
+++ b/Tutorial/mof.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\mof\cif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C32795-8994-45EE-9C88-EEA9979A92C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE74F01-62D6-4C2F-9821-942735769414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="750" windowWidth="15420" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1155" windowWidth="15420" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="146">
   <si>
     <t>precursor</t>
   </si>
@@ -241,10 +241,6 @@
   </si>
   <si>
     <t>DOBDC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MOF-74</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -522,6 +518,93 @@
   </si>
   <si>
     <t>MOF-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DABCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1CN2CCC1CC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TPA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1cc(O)cc(O)c1C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mg(NO₃)₂・6H₂O</t>
+  </si>
+  <si>
+    <t>MgMOF-74</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-69A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zn(NO₃)₂·6H₂O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bio-MOF-1（Zn-adeninate-BPDC）-Ag (Selective removal of adenine)-&gt; MOF-69A </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-69B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-69C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)C1CCC(CC1)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-69D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)C1CC(CC(C1)C(=O)O)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHDC_isomer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TPTCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1ccc(cc1)c2ccc(cc2)c3ccc(cc3)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-72</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -605,6 +688,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -885,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1108,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7">
         <f>273+82</f>
@@ -1144,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <f>273+82</f>
@@ -1180,7 +1265,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F14" si="0">273+82</f>
@@ -1216,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1252,7 +1337,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -1288,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1324,7 +1409,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1360,7 +1445,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1495,16 +1580,16 @@
         <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="6">
         <f>273+220</f>
@@ -1514,19 +1599,19 @@
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6">
         <f>273+220</f>
@@ -1539,16 +1624,16 @@
         <v>54</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="6">
         <f>273+220</f>
@@ -1559,24 +1644,24 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="7" customFormat="1">
       <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="6">
         <f>273+220</f>
@@ -1587,7 +1672,7 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1">
@@ -1595,16 +1680,16 @@
         <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="6">
         <f>273+220</f>
@@ -1615,20 +1700,20 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="6">
         <f>273+220</f>
@@ -1639,7 +1724,7 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="7" customFormat="1">
@@ -1647,16 +1732,16 @@
         <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="6">
         <f>273+220</f>
@@ -1667,20 +1752,20 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="6">
         <f>273+220</f>
@@ -1691,24 +1776,24 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1">
       <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="6">
         <f>273+220</f>
@@ -1719,24 +1804,24 @@
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="7" customFormat="1">
       <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="6">
         <f>273+220</f>
@@ -1747,24 +1832,24 @@
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="6">
         <f>273+220</f>
@@ -1775,24 +1860,24 @@
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="6">
         <f>273+220</f>
@@ -1803,7 +1888,7 @@
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="7" customFormat="1">
@@ -1811,16 +1896,16 @@
         <v>54</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="6">
         <f>273+220</f>
@@ -1831,24 +1916,24 @@
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="7" customFormat="1">
       <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="6">
         <f>273+220</f>
@@ -1859,7 +1944,7 @@
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="7" customFormat="1">
@@ -1867,16 +1952,16 @@
         <v>54</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="6">
         <f>273+220</f>
@@ -1887,24 +1972,24 @@
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="7" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="6">
         <f>273+220</f>
@@ -1915,24 +2000,24 @@
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1">
       <c r="A35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="6">
         <f>273+220</f>
@@ -1943,24 +2028,24 @@
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1">
       <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="6">
         <f>273+220</f>
@@ -1971,24 +2056,24 @@
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1">
       <c r="A37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="6">
         <f>273+220</f>
@@ -1999,24 +2084,24 @@
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="6">
         <f>273+220</f>
@@ -2027,24 +2112,24 @@
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="6">
         <f>273+220</f>
@@ -2055,24 +2140,24 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="7" customFormat="1">
       <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="6">
         <f>273+220</f>
@@ -2083,24 +2168,24 @@
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="7" customFormat="1">
       <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="6">
         <f>273+220</f>
@@ -2111,24 +2196,24 @@
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="6">
         <f>273+220</f>
@@ -2139,24 +2224,24 @@
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" s="6">
         <f>273+220</f>
@@ -2172,13 +2257,13 @@
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" s="6">
         <f>273+220</f>
@@ -2192,19 +2277,19 @@
     </row>
     <row r="45" spans="1:9" s="7" customFormat="1">
       <c r="A45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="6">
         <f>273+210</f>
@@ -2220,13 +2305,13 @@
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
       <c r="C46" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F46" s="6">
         <f>273+210</f>
@@ -2240,16 +2325,16 @@
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1">
       <c r="A47" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" s="6">
         <f>273+220</f>
@@ -2262,16 +2347,16 @@
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1">
       <c r="A48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" s="6">
         <f>273+220</f>
@@ -2284,16 +2369,16 @@
     </row>
     <row r="49" spans="1:8" s="7" customFormat="1">
       <c r="A49" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F49" s="6">
         <f>273+220</f>
@@ -2306,16 +2391,16 @@
     </row>
     <row r="50" spans="1:8" s="7" customFormat="1">
       <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F50" s="6">
         <f>273+220</f>
@@ -2330,10 +2415,10 @@
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F51" s="6">
         <f>273+220</f>
@@ -2348,10 +2433,10 @@
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
       <c r="C52" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F52" s="6">
         <f>273+220</f>
@@ -2364,16 +2449,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="6">
         <f>273+220</f>
@@ -2383,21 +2468,21 @@
         <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" s="6">
         <f>273+220</f>
@@ -2407,17 +2492,17 @@
         <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="9"/>
       <c r="B55" s="8"/>
       <c r="C55" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="6">
         <f>273+220</f>
@@ -2427,17 +2512,17 @@
         <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="9"/>
       <c r="B56" s="8"/>
       <c r="C56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="6">
         <f>273+220</f>
@@ -2447,21 +2532,21 @@
         <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F57" s="6">
         <f>273+220</f>
@@ -2471,17 +2556,17 @@
         <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="9"/>
       <c r="B58" s="8"/>
       <c r="C58" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F58" s="6">
         <f>273+220</f>
@@ -2491,7 +2576,7 @@
         <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2499,16 +2584,16 @@
         <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59">
         <f>273+150</f>
@@ -2522,13 +2607,13 @@
       <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60">
         <f>273+150</f>
@@ -2540,16 +2625,16 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61">
         <f>273+155</f>
@@ -2563,10 +2648,10 @@
       <c r="A62" s="9"/>
       <c r="B62" s="8"/>
       <c r="C62" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62">
         <f>273+155</f>
@@ -2581,190 +2666,398 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="2" t="s">
+      <c r="C66" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="6">
+        <f>273+220</f>
+        <v>493</v>
+      </c>
+      <c r="G69" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="6">
+        <f>273+220</f>
+        <v>493</v>
+      </c>
+      <c r="G70" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="6">
+        <f>273+220</f>
+        <v>493</v>
+      </c>
+      <c r="G71" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="3" customFormat="1">
+      <c r="A72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="3">
+        <f>273+220</f>
+        <v>493</v>
+      </c>
+      <c r="G72" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="2" t="s">
+      <c r="C74" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="6">
-        <f>273+220</f>
-        <v>493</v>
-      </c>
-      <c r="G69" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" s="6">
-        <f>273+220</f>
-        <v>493</v>
-      </c>
-      <c r="G70" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="2" t="s">
+      <c r="C75" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="H75" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="H76" t="s">
+        <v>132</v>
+      </c>
+      <c r="I76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="6">
-        <f>273+220</f>
-        <v>493</v>
-      </c>
-      <c r="G71" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="3" customFormat="1">
-      <c r="A72" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C85" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="3">
-        <f>273+220</f>
-        <v>493</v>
-      </c>
-      <c r="G72" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="C73" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="F87">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G87">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G88">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="6"/>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/mof.xlsx
+++ b/Tutorial/mof.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\mof\cif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE74F01-62D6-4C2F-9821-942735769414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59AC289-B53D-43DD-BABA-58B1E94D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1155" windowWidth="15420" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="1020" windowWidth="21285" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="226">
   <si>
     <t>precursor</t>
   </si>
@@ -607,12 +607,385 @@
     <t>MOF-72</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MOF-177</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BTB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1ccc(cc1)c2cc(cc(c2)c3ccc(cc3)C(=O)O)c4ccc(cc4)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-205-NH₂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-205-NO₂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-205-Obn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NDC-NH₂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NDC-NO₂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NDC-(OBn)₂</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOF-210</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TATB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1cc(cc(c1)c2cc(cc(c2)C(=O)O)c3cc(cc(c3)C(=O)O)c4cc(cc(c4)C(=O)O))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>IRMOF-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EtOH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nc1cc(ccc1C(=O)O)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Me-BDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cc1cc(ccc1C(=O)O)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NH2-BDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EtO-BDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCOc1cc(ccc1C(=O)O)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1ccc2ccccc2c1C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1cc(ccc1C(=O)O)C2CCC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CyBu-BDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Supercritical CO₂ activation</t>
+  </si>
+  <si>
+    <t>IRMOF-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coordination bond: 4 Zn(NO3)2 6H2O + 3 BDC -&gt; Zn4O(BDC)3 + by-products (NO2-, H2O, etc.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Additives used in combination</t>
+  </si>
+  <si>
+    <t>OC(=O)c1ccc(cc1)/C=C/c2ccc(cc2)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stilbene-BDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,4-NDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRMOF-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TPDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QPDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1ccc(cc1)-c2ccc(cc2)-c3ccc(cc3)-c4ccc(cc4)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PyDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O=C(O)c1ccc2ccc3ccc(C(=O)O)cc3c2c1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NpDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O=C(O)c1ccc2ccccc2c1C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1ccc(cc1)-c2ccc(cc2)-c3ccc(cc3)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c1cnc[nH]1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Zn(NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>₃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>·6H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hmim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cc1cnc[nH]1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCc1cnc[nH]1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clc1ncc[nH]1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EtIm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClIm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bIm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c1ccc2[nH]cnc2c1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeOH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unstable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF grass</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +1018,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF424242"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -970,16 +1349,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
@@ -1193,7 +1573,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="F7">
         <f>273+82</f>
@@ -3041,22 +3421,1044 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="A89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G89">
+        <v>48</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G90">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G91">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G92">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G93">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G94">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F95">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G95">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" s="3" customFormat="1">
+      <c r="A100" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" s="7" customFormat="1">
+      <c r="A101" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="B101" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F101" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G101" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="7" customFormat="1">
+      <c r="A102" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F102" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G102" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="7" customFormat="1">
+      <c r="A103" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G103" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="7" customFormat="1">
+      <c r="A104" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G104" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="7" customFormat="1">
+      <c r="A105" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G105" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="7" customFormat="1">
+      <c r="A106" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G106" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="7" customFormat="1">
+      <c r="A107" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" s="7" customFormat="1">
+      <c r="A108" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" s="7" customFormat="1">
+      <c r="A109" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F109" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G109" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="7" customFormat="1">
+      <c r="A110" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F110" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G110" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="7" customFormat="1">
+      <c r="A111" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G111" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="7" customFormat="1">
+      <c r="A112" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G112" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="7" customFormat="1">
+      <c r="A113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="7">
+        <f>273+130</f>
+        <v>403</v>
+      </c>
+      <c r="G113" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="7" customFormat="1">
+      <c r="A114" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="7">
+        <f>273+130</f>
+        <v>403</v>
+      </c>
+      <c r="G114" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="7" customFormat="1">
+      <c r="A115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="2"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="7" customFormat="1">
+      <c r="A116" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="2"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="7" customFormat="1">
+      <c r="A117" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="7" customFormat="1">
+      <c r="A118" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="7" customFormat="1">
+      <c r="A119" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G119" s="6">
+        <v>24</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="7" customFormat="1">
+      <c r="A120" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G120" s="6">
+        <v>24</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="7" customFormat="1">
+      <c r="A121" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="2"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" s="7" customFormat="1">
+      <c r="A122" s="9"/>
+      <c r="C122" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="2"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" s="7" customFormat="1">
+      <c r="A123" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="2"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" s="7" customFormat="1">
+      <c r="A124" s="9"/>
+      <c r="C124" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="2"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" s="7" customFormat="1">
+      <c r="A125" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="2"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" s="7" customFormat="1">
+      <c r="A126" s="9"/>
+      <c r="C126" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="2"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" s="7" customFormat="1">
+      <c r="A127" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="2"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" s="7" customFormat="1">
+      <c r="A128" s="9"/>
+      <c r="C128" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="2"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" s="7" customFormat="1">
+      <c r="A129" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="2"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" s="7" customFormat="1">
+      <c r="A130" s="9"/>
+      <c r="C130" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="2"/>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" s="7" customFormat="1">
+      <c r="A131" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="2"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" s="3" customFormat="1">
+      <c r="A132" s="10"/>
+      <c r="C132" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="7" customFormat="1">
+      <c r="A133" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G133" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="7" customFormat="1" ht="19.5">
+      <c r="A134" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F134" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G134" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="7" customFormat="1">
+      <c r="A135" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="7">
+        <f>273+80</f>
+        <v>353</v>
+      </c>
+      <c r="G135" s="6">
+        <v>48</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="7" customFormat="1" ht="19.5">
+      <c r="A136" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F136" s="7">
+        <f>273+80</f>
+        <v>353</v>
+      </c>
+      <c r="G136" s="6">
+        <v>48</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="7" customFormat="1">
+      <c r="A137" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G137" s="6">
+        <v>72</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="7" customFormat="1" ht="19.5">
+      <c r="A138" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F138" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G138" s="6">
+        <v>72</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="7" customFormat="1">
+      <c r="A139" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="7">
+        <f>273+140</f>
+        <v>413</v>
+      </c>
+      <c r="G139" s="6">
+        <v>48</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="7" customFormat="1" ht="19.5">
+      <c r="A140" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F140" s="7">
+        <f>273+140</f>
+        <v>413</v>
+      </c>
+      <c r="G140" s="6">
+        <v>48</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="7" customFormat="1">
+      <c r="A141" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="7" customFormat="1" ht="19.5">
+      <c r="A142" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="7" customFormat="1">
+      <c r="A143" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="7" customFormat="1" ht="19.5">
+      <c r="A144" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="7" customFormat="1">
+      <c r="A145" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="7" customFormat="1">
+      <c r="A146" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="7" customFormat="1">
+      <c r="A147" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F147" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G147" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="7" customFormat="1">
+      <c r="A148" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F148" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G148" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="7" customFormat="1">
+      <c r="A149" s="6"/>
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="6" t="s">
+    <row r="151" spans="1:7">
+      <c r="A151" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Tutorial/mof.xlsx
+++ b/Tutorial/mof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\mof\cif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59AC289-B53D-43DD-BABA-58B1E94D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F58B46-2154-4766-8F1A-036229994250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="1020" windowWidth="21285" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="266">
   <si>
     <t>precursor</t>
   </si>
@@ -483,10 +483,6 @@
   </si>
   <si>
     <t>MIL-127</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ethanol</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -980,6 +976,204 @@
     <t>ZIF grass</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ZIF-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K₂CO₃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mechanochemical synthesis (ball mill, etc.)</t>
+  </si>
+  <si>
+    <t>ZIF-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>ZIF-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-69</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-71</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-77</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-90</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-96</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZIF-97</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Co(NO₃)₂·6H₂O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotation and seeding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n-Pentane</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>solvothermal synthesis</t>
+  </si>
+  <si>
+    <t>solvothermal synthesis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClbIm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clc1ccc2[nH]cnc2c1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dcIm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clc1cnc(Cl)[nH]1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High-throughput synthesis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zn(OAc)₂·2H₂O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Zn(OAc)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>·2H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <t>ICA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O=Cc1cnc[nH]1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NaOH、KOH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-ICA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O=C(O)c1cncn1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-NI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O=N+c1cncn1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4,5-DAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1=C(NC=N1N)N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZnMOF-74</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Henderson-Hasselbalch equation</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1034,7 +1228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1051,11 +1245,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1069,6 +1283,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1349,20 +1569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
@@ -1375,7 +1596,7 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1390,7 +1611,7 @@
       <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1410,7 +1631,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
@@ -1437,7 +1658,7 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1453,6 +1674,7 @@
       <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -1464,7 +1686,7 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1480,7 +1702,7 @@
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
@@ -1497,7 +1719,7 @@
       <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1513,7 +1735,7 @@
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
@@ -1533,7 +1755,7 @@
       <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1549,7 +1771,7 @@
       <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
@@ -1569,11 +1791,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7">
         <f>273+82</f>
@@ -1585,7 +1807,7 @@
       <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J7" t="s">
@@ -1605,11 +1827,11 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8">
         <f>273+82</f>
@@ -1621,7 +1843,7 @@
       <c r="H8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J8" t="s">
@@ -1641,11 +1863,11 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F14" si="0">273+82</f>
@@ -1657,7 +1879,7 @@
       <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J9" t="s">
@@ -1677,11 +1899,11 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1693,7 +1915,7 @@
       <c r="H10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J10" t="s">
@@ -1713,11 +1935,11 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -1729,7 +1951,7 @@
       <c r="H11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J11" t="s">
@@ -1749,11 +1971,11 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -1765,7 +1987,7 @@
       <c r="H12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J12" t="s">
@@ -1785,11 +2007,11 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -1801,7 +2023,7 @@
       <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J13" t="s">
@@ -1821,11 +2043,11 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1837,7 +2059,7 @@
       <c r="H14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J14" t="s">
@@ -1857,7 +2079,7 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
@@ -1881,7 +2103,7 @@
       <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
@@ -1905,7 +2127,7 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F17">
@@ -1918,7 +2140,7 @@
       <c r="H17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J17" t="s">
@@ -1935,7 +2157,7 @@
       <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="3">
@@ -1948,7 +2170,7 @@
       <c r="H18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -1965,7 +2187,7 @@
       <c r="C19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1976,6 +2198,7 @@
         <v>493</v>
       </c>
       <c r="H19" s="9"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:10" s="7" customFormat="1">
       <c r="A20" s="6" t="s">
@@ -1987,7 +2210,7 @@
       <c r="C20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1998,6 +2221,7 @@
         <v>493</v>
       </c>
       <c r="H20" s="9"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:10" s="7" customFormat="1">
       <c r="A21" s="6" t="s">
@@ -2009,7 +2233,7 @@
       <c r="C21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2023,7 +2247,7 @@
         <v>72</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2037,7 +2261,7 @@
       <c r="C22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2051,7 +2275,7 @@
         <v>72</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2065,7 +2289,7 @@
       <c r="C23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -2079,7 +2303,7 @@
         <v>72</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2089,7 +2313,7 @@
       <c r="C24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -2103,7 +2327,7 @@
         <v>72</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2117,7 +2341,7 @@
       <c r="C25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2131,7 +2355,7 @@
         <v>72</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2141,7 +2365,7 @@
       <c r="C26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -2155,7 +2379,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2169,7 +2393,7 @@
       <c r="C27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -2183,7 +2407,7 @@
         <v>72</v>
       </c>
       <c r="H27" s="9"/>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2197,7 +2421,7 @@
       <c r="C28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -2211,7 +2435,7 @@
         <v>72</v>
       </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2225,7 +2449,7 @@
       <c r="C29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -2239,7 +2463,7 @@
         <v>72</v>
       </c>
       <c r="H29" s="9"/>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2253,7 +2477,7 @@
       <c r="C30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -2267,7 +2491,7 @@
         <v>72</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2281,7 +2505,7 @@
       <c r="C31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -2295,7 +2519,7 @@
         <v>72</v>
       </c>
       <c r="H31" s="9"/>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2309,7 +2533,7 @@
       <c r="C32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2323,7 +2547,7 @@
         <v>72</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2337,7 +2561,7 @@
       <c r="C33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -2351,7 +2575,7 @@
         <v>72</v>
       </c>
       <c r="H33" s="9"/>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2365,7 +2589,7 @@
       <c r="C34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -2379,7 +2603,7 @@
         <v>72</v>
       </c>
       <c r="H34" s="9"/>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2393,7 +2617,7 @@
       <c r="C35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -2407,7 +2631,7 @@
         <v>72</v>
       </c>
       <c r="H35" s="9"/>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2421,7 +2645,7 @@
       <c r="C36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -2435,7 +2659,7 @@
         <v>72</v>
       </c>
       <c r="H36" s="9"/>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2449,7 +2673,7 @@
       <c r="C37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -2463,7 +2687,7 @@
         <v>72</v>
       </c>
       <c r="H37" s="9"/>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2477,7 +2701,7 @@
       <c r="C38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -2491,7 +2715,7 @@
         <v>72</v>
       </c>
       <c r="H38" s="9"/>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2505,7 +2729,7 @@
       <c r="C39" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -2519,7 +2743,7 @@
         <v>72</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2533,7 +2757,7 @@
       <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -2547,7 +2771,7 @@
         <v>72</v>
       </c>
       <c r="H40" s="9"/>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2561,7 +2785,7 @@
       <c r="C41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -2575,7 +2799,7 @@
         <v>72</v>
       </c>
       <c r="H41" s="9"/>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2589,7 +2813,7 @@
       <c r="C42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -2603,7 +2827,7 @@
         <v>72</v>
       </c>
       <c r="H42" s="9"/>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2617,8 +2841,8 @@
       <c r="C43" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>115</v>
+      <c r="D43" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>69</v>
@@ -2631,7 +2855,7 @@
         <v>72</v>
       </c>
       <c r="H43" s="9"/>
-      <c r="I43" s="6"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" s="7" customFormat="1">
       <c r="A44" s="2"/>
@@ -2639,8 +2863,8 @@
       <c r="C44" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>115</v>
+      <c r="D44" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>69</v>
@@ -2653,7 +2877,7 @@
         <v>72</v>
       </c>
       <c r="H44" s="9"/>
-      <c r="I44" s="6"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" s="7" customFormat="1">
       <c r="A45" s="6" t="s">
@@ -2665,7 +2889,7 @@
       <c r="C45" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -2679,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="9"/>
-      <c r="I45" s="6"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1">
       <c r="A46" s="2"/>
@@ -2687,7 +2911,7 @@
       <c r="C46" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -2701,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="9"/>
-      <c r="I46" s="6"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -2711,8 +2935,9 @@
         <v>59</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D47" s="16"/>
       <c r="E47" s="6" t="s">
         <v>69</v>
       </c>
@@ -2724,6 +2949,7 @@
         <v>72</v>
       </c>
       <c r="H47" s="9"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1">
       <c r="A48" s="2" t="s">
@@ -2733,8 +2959,9 @@
         <v>61</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D48" s="16"/>
       <c r="E48" s="6" t="s">
         <v>69</v>
       </c>
@@ -2746,8 +2973,9 @@
         <v>72</v>
       </c>
       <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" s="7" customFormat="1">
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" s="7" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>57</v>
       </c>
@@ -2755,8 +2983,9 @@
         <v>59</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D49" s="16"/>
       <c r="E49" s="6" t="s">
         <v>69</v>
       </c>
@@ -2768,8 +2997,9 @@
         <v>72</v>
       </c>
       <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" s="7" customFormat="1">
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" s="7" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>62</v>
       </c>
@@ -2777,8 +3007,9 @@
         <v>63</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D50" s="16"/>
       <c r="E50" s="6" t="s">
         <v>69</v>
       </c>
@@ -2790,13 +3021,15 @@
         <v>72</v>
       </c>
       <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" s="7" customFormat="1">
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D51" s="16"/>
       <c r="E51" s="6" t="s">
         <v>69</v>
       </c>
@@ -2808,13 +3041,15 @@
         <v>72</v>
       </c>
       <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" s="7" customFormat="1">
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" s="7" customFormat="1">
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
       <c r="C52" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D52" s="16"/>
       <c r="E52" s="6" t="s">
         <v>69</v>
       </c>
@@ -2826,8 +3061,9 @@
         <v>72</v>
       </c>
       <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
         <v>57</v>
       </c>
@@ -2835,7 +3071,7 @@
         <v>59</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>69</v>
@@ -2848,10 +3084,10 @@
         <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>62</v>
       </c>
@@ -2859,7 +3095,7 @@
         <v>63</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>69</v>
@@ -2872,14 +3108,14 @@
         <v>72</v>
       </c>
       <c r="H54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="9"/>
       <c r="B55" s="8"/>
       <c r="C55" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>69</v>
@@ -2892,14 +3128,14 @@
         <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="9"/>
       <c r="B56" s="8"/>
       <c r="C56" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>69</v>
@@ -2912,10 +3148,10 @@
         <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -2936,10 +3172,10 @@
         <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="9"/>
       <c r="B58" s="8"/>
       <c r="C58" s="6" t="s">
@@ -2956,10 +3192,10 @@
         <v>72</v>
       </c>
       <c r="H58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
@@ -2969,11 +3205,11 @@
       <c r="C59" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59">
         <f>273+150</f>
@@ -2983,17 +3219,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="16" t="s">
         <v>67</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60">
         <f>273+150</f>
@@ -3003,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
@@ -3013,7 +3249,7 @@
       <c r="C61" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F61">
@@ -3024,13 +3260,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="9"/>
       <c r="B62" s="8"/>
       <c r="C62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F62">
@@ -3041,7 +3277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
         <v>54</v>
       </c>
@@ -3052,7 +3288,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
         <v>92</v>
       </c>
@@ -3117,7 +3353,7 @@
       <c r="C69" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E69" t="s">
@@ -3141,7 +3377,7 @@
       <c r="C70" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E70" t="s">
@@ -3165,7 +3401,7 @@
       <c r="C71" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E71" t="s">
@@ -3189,7 +3425,7 @@
       <c r="C72" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -3202,32 +3438,33 @@
       <c r="G72" s="3">
         <v>72</v>
       </c>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="C73" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3239,121 +3476,121 @@
         <v>99</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="D75" s="14"/>
       <c r="H75" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="I75" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="D76" s="14"/>
       <c r="H76" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="I76" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="C79" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:7">
+        <v>135</v>
+      </c>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:7">
+        <v>138</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:7">
+        <v>138</v>
+      </c>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="C83" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="11" t="s">
         <v>110</v>
       </c>
@@ -3361,31 +3598,31 @@
         <v>99</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E87" t="s">
@@ -3398,15 +3635,18 @@
       <c r="G87">
         <v>72</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E88" t="s">
@@ -3419,133 +3659,142 @@
       <c r="G88">
         <v>72</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="2" t="s">
+      <c r="I88" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G89">
+        <v>72</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G90">
+        <v>72</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C91" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="G91">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G92">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G89">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G90">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="D93" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F91">
+      <c r="F93">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G91">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="G93">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F92">
+      <c r="F94">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G92">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="2" t="s">
+      <c r="G94">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
         <v>149</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C95" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F93">
-        <f>273+150</f>
-        <v>423</v>
-      </c>
-      <c r="G93">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F94">
-        <f>273+150</f>
-        <v>423</v>
-      </c>
-      <c r="G94">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -3559,114 +3808,115 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G96">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F97">
+        <f>273+150</f>
+        <v>423</v>
+      </c>
+      <c r="G97">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="2" t="s">
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="2" t="s">
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1">
+      <c r="A102" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="I102" s="13"/>
+    </row>
+    <row r="103" spans="1:9" s="7" customFormat="1">
+      <c r="A103" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" s="3" customFormat="1">
-      <c r="A100" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" s="7" customFormat="1">
-      <c r="A101" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C101" s="6" t="s">
+      <c r="D103" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F101" s="7">
-        <f>273+120</f>
-        <v>393</v>
-      </c>
-      <c r="G101" s="7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="7" customFormat="1">
-      <c r="A102" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F102" s="7">
-        <f>273+120</f>
-        <v>393</v>
-      </c>
-      <c r="G102" s="7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="7" customFormat="1">
-      <c r="A103" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F103" s="7">
         <f>273+120</f>
@@ -3675,19 +3925,20 @@
       <c r="G103" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" s="7" customFormat="1">
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" s="7" customFormat="1">
       <c r="A104" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D104" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F104" s="7">
         <f>273+120</f>
@@ -3696,21 +3947,24 @@
       <c r="G104" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" s="7" customFormat="1">
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" spans="1:9" s="7" customFormat="1">
       <c r="A105" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E105" s="2"/>
       <c r="F105" s="7">
         <f>273+120</f>
         <v>393</v>
@@ -3718,18 +3972,21 @@
       <c r="G105" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" s="7" customFormat="1">
+      <c r="I105" s="16"/>
+    </row>
+    <row r="106" spans="1:9" s="7" customFormat="1">
       <c r="A106" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E106" s="2"/>
       <c r="F106" s="7">
         <f>273+120</f>
         <v>393</v>
@@ -3737,89 +3994,92 @@
       <c r="G106" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" s="7" customFormat="1">
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" spans="1:9" s="7" customFormat="1">
       <c r="A107" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D107" s="9"/>
+        <v>163</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" s="7" customFormat="1">
-      <c r="A108" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" s="7" customFormat="1">
-      <c r="A109" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F109" s="7">
+      <c r="F107" s="7">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G109" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="7" customFormat="1">
-      <c r="A110" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F110" s="7">
+      <c r="G107" s="7">
+        <v>72</v>
+      </c>
+      <c r="I107" s="16"/>
+    </row>
+    <row r="108" spans="1:9" s="7" customFormat="1">
+      <c r="A108" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="7">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G110" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="7" customFormat="1">
-      <c r="A111" s="9" t="s">
-        <v>177</v>
+      <c r="G108" s="7">
+        <v>72</v>
+      </c>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" spans="1:9" s="7" customFormat="1">
+      <c r="A109" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="14"/>
+      <c r="E109" s="2"/>
+      <c r="I109" s="16"/>
+    </row>
+    <row r="110" spans="1:9" s="7" customFormat="1">
+      <c r="A110" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" s="14"/>
+      <c r="E110" s="2"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" spans="1:9" s="7" customFormat="1">
+      <c r="A111" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E111" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F111" s="7">
         <f>273+120</f>
         <v>393</v>
@@ -3827,18 +4087,21 @@
       <c r="G111" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" s="7" customFormat="1">
+      <c r="I111" s="16"/>
+    </row>
+    <row r="112" spans="1:9" s="7" customFormat="1">
       <c r="A112" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E112" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F112" s="7">
         <f>273+120</f>
         <v>393</v>
@@ -3846,47 +4109,50 @@
       <c r="G112" s="6">
         <v>24</v>
       </c>
+      <c r="I112" s="16"/>
     </row>
     <row r="113" spans="1:9" s="7" customFormat="1">
-      <c r="A113" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>86</v>
+      <c r="A113" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D113" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="7">
-        <f>273+130</f>
-        <v>403</v>
+        <f>273+120</f>
+        <v>393</v>
       </c>
       <c r="G113" s="6">
-        <v>48</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I113" s="16"/>
     </row>
     <row r="114" spans="1:9" s="7" customFormat="1">
       <c r="A114" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D114" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="7">
-        <f>273+130</f>
-        <v>403</v>
+        <f>273+120</f>
+        <v>393</v>
       </c>
       <c r="G114" s="6">
-        <v>48</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I114" s="16"/>
     </row>
     <row r="115" spans="1:9" s="7" customFormat="1">
       <c r="A115" s="2" t="s">
@@ -3896,63 +4162,73 @@
         <v>86</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D115" s="9"/>
+        <v>177</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="E115" s="2"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="F115" s="7">
+        <f>273+130</f>
+        <v>403</v>
+      </c>
+      <c r="G115" s="6">
+        <v>48</v>
+      </c>
+      <c r="I115" s="16"/>
     </row>
     <row r="116" spans="1:9" s="7" customFormat="1">
       <c r="A116" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D116" s="9"/>
+        <v>177</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="E116" s="2"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="F116" s="7">
+        <f>273+130</f>
+        <v>403</v>
+      </c>
+      <c r="G116" s="6">
+        <v>48</v>
+      </c>
+      <c r="I116" s="16"/>
     </row>
     <row r="117" spans="1:9" s="7" customFormat="1">
-      <c r="A117" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>99</v>
+      <c r="A117" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D117" s="14"/>
       <c r="E117" s="2"/>
       <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>183</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I117" s="16"/>
     </row>
     <row r="118" spans="1:9" s="7" customFormat="1">
       <c r="A118" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D118" s="14"/>
       <c r="E118" s="2"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="6" t="s">
-        <v>183</v>
-      </c>
+      <c r="H118" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I118" s="16"/>
     </row>
     <row r="119" spans="1:9" s="7" customFormat="1">
       <c r="A119" s="9" t="s">
@@ -3962,503 +4238,1177 @@
         <v>99</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D119" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E119" s="2"/>
-      <c r="F119" s="7">
+      <c r="G119" s="6"/>
+      <c r="H119" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="1:9" s="7" customFormat="1">
+      <c r="A120" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:9" s="7" customFormat="1">
+      <c r="A121" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="7">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G121" s="6">
         <v>24</v>
       </c>
-      <c r="H119" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="7" customFormat="1">
-      <c r="A120" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="7">
+      <c r="H121" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="7" customFormat="1">
+      <c r="A122" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="7">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G122" s="6">
         <v>24</v>
       </c>
-      <c r="H120" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="7" customFormat="1">
-      <c r="A121" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" s="6" t="s">
+      <c r="H122" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I122" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="2"/>
-      <c r="G121" s="6"/>
-    </row>
-    <row r="122" spans="1:9" s="7" customFormat="1">
-      <c r="A122" s="9"/>
-      <c r="C122" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="2"/>
-      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:9" s="7" customFormat="1">
       <c r="A123" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D123" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="D123" s="14"/>
       <c r="E123" s="2"/>
       <c r="G123" s="6"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" spans="1:9" s="7" customFormat="1">
       <c r="A124" s="9"/>
       <c r="C124" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D124" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="D124" s="14"/>
       <c r="E124" s="2"/>
       <c r="G124" s="6"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" spans="1:9" s="7" customFormat="1">
       <c r="A125" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D125" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="D125" s="14"/>
       <c r="E125" s="2"/>
       <c r="G125" s="6"/>
+      <c r="I125" s="16"/>
     </row>
     <row r="126" spans="1:9" s="7" customFormat="1">
       <c r="A126" s="9"/>
       <c r="C126" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D126" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="D126" s="14"/>
       <c r="E126" s="2"/>
       <c r="G126" s="6"/>
+      <c r="I126" s="16"/>
     </row>
     <row r="127" spans="1:9" s="7" customFormat="1">
       <c r="A127" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D127" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="D127" s="14"/>
       <c r="E127" s="2"/>
       <c r="G127" s="6"/>
+      <c r="I127" s="16"/>
     </row>
     <row r="128" spans="1:9" s="7" customFormat="1">
       <c r="A128" s="9"/>
       <c r="C128" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D128" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="D128" s="14"/>
       <c r="E128" s="2"/>
       <c r="G128" s="6"/>
-    </row>
-    <row r="129" spans="1:8" s="7" customFormat="1">
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" spans="1:9" s="7" customFormat="1">
       <c r="A129" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D129" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="D129" s="14"/>
       <c r="E129" s="2"/>
       <c r="G129" s="6"/>
-    </row>
-    <row r="130" spans="1:8" s="7" customFormat="1">
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" spans="1:9" s="7" customFormat="1">
       <c r="A130" s="9"/>
       <c r="C130" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D130" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="D130" s="14"/>
       <c r="E130" s="2"/>
       <c r="G130" s="6"/>
-    </row>
-    <row r="131" spans="1:8" s="7" customFormat="1">
+      <c r="I130" s="16"/>
+    </row>
+    <row r="131" spans="1:9" s="7" customFormat="1">
       <c r="A131" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D131" s="9"/>
+        <v>192</v>
+      </c>
+      <c r="D131" s="14"/>
       <c r="E131" s="2"/>
       <c r="G131" s="6"/>
-    </row>
-    <row r="132" spans="1:8" s="3" customFormat="1">
-      <c r="A132" s="10"/>
-      <c r="C132" s="10" t="s">
+      <c r="I131" s="16"/>
+    </row>
+    <row r="132" spans="1:9" s="7" customFormat="1">
+      <c r="A132" s="9"/>
+      <c r="C132" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D132" s="14"/>
+      <c r="E132" s="2"/>
+      <c r="G132" s="6"/>
+      <c r="I132" s="16"/>
+    </row>
+    <row r="133" spans="1:9" s="7" customFormat="1">
+      <c r="A133" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" s="7" customFormat="1">
-      <c r="A133" s="6" t="s">
+      <c r="B133" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D133" s="14"/>
+      <c r="E133" s="2"/>
+      <c r="G133" s="6"/>
+      <c r="I133" s="16"/>
+    </row>
+    <row r="134" spans="1:9" s="3" customFormat="1">
+      <c r="A134" s="10"/>
+      <c r="C134" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="I134" s="13"/>
+    </row>
+    <row r="135" spans="1:9" s="7" customFormat="1">
+      <c r="A135" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F133" s="7">
+      <c r="C135" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="7">
         <f>273+100</f>
         <v>373</v>
       </c>
-      <c r="G133" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="7" customFormat="1" ht="19.5">
-      <c r="A134" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F134" s="7">
+      <c r="G135" s="6">
+        <v>72</v>
+      </c>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" spans="1:9" s="7" customFormat="1" ht="19.5">
+      <c r="A136" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F136" s="7">
         <f>273+100</f>
         <v>373</v>
       </c>
-      <c r="G134" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="7" customFormat="1">
-      <c r="A135" s="6" t="s">
+      <c r="G136" s="6">
+        <v>72</v>
+      </c>
+      <c r="I136" s="16"/>
+    </row>
+    <row r="137" spans="1:9" s="7" customFormat="1">
+      <c r="A137" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F135" s="7">
+      <c r="C137" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="7">
         <f>273+80</f>
         <v>353</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G137" s="6">
         <v>48</v>
       </c>
-      <c r="H135" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="7" customFormat="1" ht="19.5">
-      <c r="A136" s="11" t="s">
+      <c r="H137" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" spans="1:9" s="7" customFormat="1" ht="19.5">
+      <c r="A138" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F136" s="7">
+      <c r="D138" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F138" s="7">
         <f>273+80</f>
         <v>353</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G138" s="6">
         <v>48</v>
       </c>
-      <c r="H136" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="7" customFormat="1">
-      <c r="A137" s="6" t="s">
+      <c r="H138" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" spans="1:9" s="7" customFormat="1">
+      <c r="A139" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F137" s="7">
+      <c r="C139" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="7">
         <f>273+100</f>
         <v>373</v>
       </c>
-      <c r="G137" s="6">
-        <v>72</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="7" customFormat="1" ht="19.5">
-      <c r="A138" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D138" s="7" t="s">
+      <c r="G139" s="6">
+        <v>72</v>
+      </c>
+      <c r="H139" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F138" s="7">
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" spans="1:9" s="7" customFormat="1" ht="19.5">
+      <c r="A140" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F140" s="7">
         <f>273+100</f>
         <v>373</v>
       </c>
-      <c r="G138" s="6">
-        <v>72</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="7" customFormat="1">
-      <c r="A139" s="6" t="s">
+      <c r="G140" s="6">
+        <v>72</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" s="7" customFormat="1">
+      <c r="A141" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F139" s="7">
+      <c r="C141" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" s="7">
         <f>273+140</f>
         <v>413</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G141" s="6">
         <v>48</v>
       </c>
-      <c r="H139" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="7" customFormat="1" ht="19.5">
-      <c r="A140" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F140" s="7">
+      <c r="H141" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" s="7" customFormat="1" ht="19.5">
+      <c r="A142" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F142" s="7">
         <f>273+140</f>
         <v>413</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G142" s="6">
         <v>48</v>
       </c>
-      <c r="H140" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="7" customFormat="1">
-      <c r="A141" s="11" t="s">
+      <c r="H142" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" s="7" customFormat="1">
+      <c r="A143" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D143" s="16"/>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="144" spans="1:9" s="7" customFormat="1" ht="19.5">
+      <c r="A144" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D144" s="16"/>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" spans="1:9" s="7" customFormat="1">
+      <c r="A145" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B145" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="7" customFormat="1" ht="19.5">
-      <c r="A142" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="7" customFormat="1">
-      <c r="A143" s="11" t="s">
+      <c r="D145" s="16"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" spans="1:9" s="7" customFormat="1" ht="19.5">
+      <c r="A146" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D146" s="16"/>
+      <c r="I146" s="16"/>
+    </row>
+    <row r="147" spans="1:9" s="7" customFormat="1">
+      <c r="A147" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="7" customFormat="1" ht="19.5">
-      <c r="A144" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="7" customFormat="1">
-      <c r="A145" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="D147" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F147" s="7">
+        <f>273+110</f>
+        <v>383</v>
+      </c>
+      <c r="G147" s="6"/>
+      <c r="H147" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" spans="1:9" s="7" customFormat="1">
+      <c r="A148" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F148" s="7">
+        <f>273+110</f>
+        <v>383</v>
+      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I148" s="16"/>
+    </row>
+    <row r="149" spans="1:9" s="7" customFormat="1">
+      <c r="A149" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D149" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="7" customFormat="1">
-      <c r="A146" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="7" customFormat="1">
-      <c r="A147" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F147" s="7">
+      <c r="E149" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F149" s="7">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G147" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="7" customFormat="1">
-      <c r="A148" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F148" s="7">
+      <c r="G149" s="6"/>
+      <c r="I149" s="16"/>
+    </row>
+    <row r="150" spans="1:9" s="7" customFormat="1">
+      <c r="A150" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F150" s="7">
         <f>273+120</f>
         <v>393</v>
       </c>
-      <c r="G148" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="7" customFormat="1">
-      <c r="A149" s="6"/>
-      <c r="C149" s="6"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="6" t="s">
+      <c r="G150" s="6"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" spans="1:9" s="7" customFormat="1">
+      <c r="A151" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I151" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="7" customFormat="1">
+      <c r="A152" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I152" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="7" customFormat="1">
+      <c r="A153" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="I153" s="16"/>
+    </row>
+    <row r="154" spans="1:9" s="7" customFormat="1">
+      <c r="A154" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="I154" s="16"/>
+    </row>
+    <row r="155" spans="1:9" s="7" customFormat="1">
+      <c r="A155" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G155" s="6">
+        <v>72</v>
+      </c>
+      <c r="I155" s="16"/>
+    </row>
+    <row r="156" spans="1:9" s="7" customFormat="1">
+      <c r="A156" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E156" s="6"/>
+      <c r="F156" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G156" s="6">
+        <v>72</v>
+      </c>
+      <c r="I156" s="16"/>
+    </row>
+    <row r="157" spans="1:9" s="7" customFormat="1">
+      <c r="A157" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F157" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G157" s="6">
+        <v>72</v>
+      </c>
+      <c r="I157" s="16"/>
+    </row>
+    <row r="158" spans="1:9" s="7" customFormat="1">
+      <c r="A158" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F158" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G158" s="6">
+        <v>72</v>
+      </c>
+      <c r="I158" s="16"/>
+    </row>
+    <row r="159" spans="1:9" s="7" customFormat="1">
+      <c r="A159" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G159" s="6"/>
+      <c r="I159" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="7" customFormat="1">
+      <c r="A160" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G160" s="6"/>
+      <c r="I160" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="7" customFormat="1">
+      <c r="A161" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G161" s="6">
+        <v>12</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="7" customFormat="1">
+      <c r="A162" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D162" s="16"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G162" s="6">
+        <v>12</v>
+      </c>
+      <c r="I162" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="7" customFormat="1">
+      <c r="A163" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="7">
+        <f>273+140</f>
+        <v>413</v>
+      </c>
+      <c r="G163" s="6">
+        <v>72</v>
+      </c>
+      <c r="I163" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="7" customFormat="1">
+      <c r="A164" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E164" s="6"/>
+      <c r="F164" s="7">
+        <f>273+140</f>
+        <v>413</v>
+      </c>
+      <c r="G164" s="6">
+        <v>72</v>
+      </c>
+      <c r="I164" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="7" customFormat="1">
+      <c r="A165" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G165" s="6">
+        <v>72</v>
+      </c>
+      <c r="I165" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="7" customFormat="1">
+      <c r="A166" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F166" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G166" s="6">
+        <v>72</v>
+      </c>
+      <c r="I166" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="7" customFormat="1">
+      <c r="A167" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="7">
+        <f>273+140</f>
+        <v>413</v>
+      </c>
+      <c r="G167" s="6">
+        <v>72</v>
+      </c>
+      <c r="I167" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="7" customFormat="1">
+      <c r="A168" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="6"/>
+      <c r="F168" s="7">
+        <f>273+140</f>
+        <v>413</v>
+      </c>
+      <c r="G168" s="6">
+        <v>72</v>
+      </c>
+      <c r="I168" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="7" customFormat="1">
+      <c r="A169" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G169" s="6"/>
+      <c r="I169" s="16"/>
+    </row>
+    <row r="170" spans="1:9" s="7" customFormat="1">
+      <c r="A170" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G170" s="6"/>
+      <c r="I170" s="16"/>
+    </row>
+    <row r="171" spans="1:9" s="7" customFormat="1">
+      <c r="A171" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" s="7">
+        <f>273+60</f>
+        <v>333</v>
+      </c>
+      <c r="G171" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="I171" s="16"/>
+    </row>
+    <row r="172" spans="1:9" s="7" customFormat="1">
+      <c r="A172" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F172" s="7">
+        <f>273+60</f>
+        <v>333</v>
+      </c>
+      <c r="G172" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="I172" s="16"/>
+    </row>
+    <row r="173" spans="1:9" s="7" customFormat="1">
+      <c r="A173" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="I173" s="16"/>
+    </row>
+    <row r="174" spans="1:9" s="7" customFormat="1">
+      <c r="A174" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="I174" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="7" customFormat="1">
+      <c r="A175" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="I175" s="16"/>
+    </row>
+    <row r="176" spans="1:9" s="7" customFormat="1">
+      <c r="A176" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G176" s="6"/>
+      <c r="I176" s="16"/>
+    </row>
+    <row r="177" spans="1:9" s="7" customFormat="1">
+      <c r="A177" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177" s="16"/>
+      <c r="E177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="I177" s="16"/>
+    </row>
+    <row r="178" spans="1:9" s="3" customFormat="1">
+      <c r="A178" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D178" s="13"/>
+      <c r="E178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="I178" s="13"/>
+    </row>
+    <row r="179" spans="1:9" s="7" customFormat="1">
+      <c r="A179" s="11"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="I179" s="16"/>
+    </row>
+    <row r="180" spans="1:9" s="7" customFormat="1">
+      <c r="A180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="16"/>
+      <c r="I180" s="16"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="6" t="s">
+    <row r="182" spans="1:9">
+      <c r="A182" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Tutorial/mof.xlsx
+++ b/Tutorial/mof.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\mof\cif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F58B46-2154-4766-8F1A-036229994250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F54D5A-3611-46EE-B0C1-8A179E7364F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1020" windowWidth="21285" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="6375" windowWidth="21285" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="282">
   <si>
     <t>precursor</t>
   </si>
@@ -1172,6 +1172,108 @@
   </si>
   <si>
     <t>Henderson-Hasselbalch equation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NU-100SP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ZrOCl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>·8H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H4TBAPy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1(C2=CC=C(C=C2)C(=O)O)=C2C3=C4C(C=C2)=C(C2=CC=C(C=C2)C(=O)O)C=C(C2=CC=C(C=C2)C(=O)O)C4=CC=C3C(C2=CC=C(C=C2)C(=O)O)=C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCN-60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OC(=O)c1cc(ccc1C#Cc2cc(ccc2C#Cc3cc(ccc3C#Cc4cc(ccc4)C(=O)O))C(=O)O)C(=O)O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cu(NO₃)₂·xH₂O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCN-61</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H6BTEI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cu(NO₃)₂·3H₂O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cu(CH₃COO)₂·xH₂O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCN-68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modulator (Acetic acid (added explicitly))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modulator (Acetic Acid or None)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modulator (Acetic acid or Nitric acid (depending on conditions))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Acetic acid</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1569,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="I186" sqref="I186"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5383,32 +5485,214 @@
       <c r="I178" s="13"/>
     </row>
     <row r="179" spans="1:9" s="7" customFormat="1">
-      <c r="A179" s="11"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="I179" s="16"/>
+      <c r="A179" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F179" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G179" s="6">
+        <v>72</v>
+      </c>
+      <c r="I179" s="16" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="180" spans="1:9" s="7" customFormat="1">
-      <c r="A180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="16"/>
-      <c r="I180" s="16"/>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="6" t="s">
+      <c r="A180" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F180" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G180" s="6">
+        <v>72</v>
+      </c>
+      <c r="I180" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="7" customFormat="1">
+      <c r="A181" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F181" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G181" s="6">
+        <v>72</v>
+      </c>
+      <c r="I181" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="7" customFormat="1">
+      <c r="A182" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F182" s="7">
+        <f>273+100</f>
+        <v>373</v>
+      </c>
+      <c r="G182" s="6">
+        <v>72</v>
+      </c>
+      <c r="I182" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="7" customFormat="1">
+      <c r="A183" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F183" s="7">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G183" s="6">
+        <v>96</v>
+      </c>
+      <c r="I183" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="3" customFormat="1">
+      <c r="A184" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F184" s="3">
+        <f>273+120</f>
+        <v>393</v>
+      </c>
+      <c r="G184" s="10">
+        <v>96</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="7" customFormat="1">
+      <c r="A185" s="11"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="I185" s="16"/>
+    </row>
+    <row r="186" spans="1:9" s="7" customFormat="1">
+      <c r="A186" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D186" s="16"/>
+      <c r="E186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="I186" s="16"/>
+    </row>
+    <row r="187" spans="1:9" s="7" customFormat="1" ht="19.5">
+      <c r="A187" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D187" s="16"/>
+      <c r="I187" s="16"/>
+    </row>
+    <row r="188" spans="1:9" s="7" customFormat="1">
+      <c r="A188" s="11"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="16"/>
+      <c r="I188" s="16"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C189" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="6" t="s">
+    <row r="190" spans="1:9">
+      <c r="A190" s="6"/>
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C191" s="6" t="s">
         <v>58</v>
       </c>
     </row>
